--- a/data/trans_orig/P24B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12850</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7524</v>
+        <v>6861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21335</v>
+        <v>21914</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1133574127066487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06637490248092259</v>
+        <v>0.06052861201866946</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1882096351459197</v>
+        <v>0.1933187023386052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +764,19 @@
         <v>8517</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3914</v>
+        <v>4037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17447</v>
+        <v>15524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1177807678378282</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05411987401408418</v>
+        <v>0.05583174963927406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2412774751731082</v>
+        <v>0.2146746481125894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -785,19 +785,19 @@
         <v>21367</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13362</v>
+        <v>12879</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32549</v>
+        <v>31117</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1150801536802961</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07196898804936225</v>
+        <v>0.06936672639044619</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.175304693848146</v>
+        <v>0.1675939145901946</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>88511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78921</v>
+        <v>77880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96897</v>
+        <v>96801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7808121208451602</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6962092279365941</v>
+        <v>0.6870306155304539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.854786311045072</v>
+        <v>0.8539375294495619</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -835,19 +835,19 @@
         <v>51024</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41700</v>
+        <v>42464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58597</v>
+        <v>58309</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7056099206120393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5766718451494677</v>
+        <v>0.5872355844838945</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.810329764231254</v>
+        <v>0.8063493081434253</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>135</v>
@@ -856,19 +856,19 @@
         <v>139535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126933</v>
+        <v>127426</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>151820</v>
+        <v>152450</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7515235134853691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.683654311256163</v>
+        <v>0.6863063629935846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8176907371657771</v>
+        <v>0.8210835312832728</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>11997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6094</v>
+        <v>6230</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20561</v>
+        <v>20238</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1058304664481911</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05376237660695415</v>
+        <v>0.05495485805720118</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1813822310579901</v>
+        <v>0.1785292740950918</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -906,19 +906,19 @@
         <v>12771</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6804</v>
+        <v>7247</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20686</v>
+        <v>20337</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1766093115501326</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09409222794813919</v>
+        <v>0.1002237724481878</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2860613890493493</v>
+        <v>0.281242691534943</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -927,19 +927,19 @@
         <v>24768</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16675</v>
+        <v>15672</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36397</v>
+        <v>34954</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1333963328343349</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08981001317112063</v>
+        <v>0.08440966603991597</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1960303754834078</v>
+        <v>0.188257693015983</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>35436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25130</v>
+        <v>25558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47557</v>
+        <v>48035</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1850556572616647</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1312355393513335</v>
+        <v>0.1334738030380059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2483584192782748</v>
+        <v>0.2508551036576369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1052,19 +1052,19 @@
         <v>20821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12503</v>
+        <v>13725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29119</v>
+        <v>30114</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1754723372862891</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1053731591445062</v>
+        <v>0.1156678966830945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2454036368048897</v>
+        <v>0.2537920227040217</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -1073,19 +1073,19 @@
         <v>56257</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43094</v>
+        <v>43842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70540</v>
+        <v>71692</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1813892104279891</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1389494552100381</v>
+        <v>0.1413620825644032</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2274424252411424</v>
+        <v>0.231158432809377</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>121796</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>107645</v>
+        <v>108240</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>134653</v>
+        <v>136452</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6360560152716015</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5621552730218924</v>
+        <v>0.5652651353090257</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7032025907148477</v>
+        <v>0.7125955704179068</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -1123,19 +1123,19 @@
         <v>66163</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55333</v>
+        <v>55028</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76234</v>
+        <v>77106</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5576054506455532</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4663274929561826</v>
+        <v>0.4637589888819313</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6424809838838699</v>
+        <v>0.6498264499903076</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>181</v>
@@ -1144,19 +1144,19 @@
         <v>187960</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>170784</v>
+        <v>171023</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>204365</v>
+        <v>206007</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6060419048159014</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5506633189019973</v>
+        <v>0.5514341919643618</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6589364779692004</v>
+        <v>0.6642327747456985</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>34255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24008</v>
+        <v>25094</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46495</v>
+        <v>46561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1788883274667339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1253755753411646</v>
+        <v>0.1310469905427316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2428098915228551</v>
+        <v>0.243156841873176</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1194,19 +1194,19 @@
         <v>31672</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22860</v>
+        <v>23198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40983</v>
+        <v>42175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2669222120681576</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1926552625477709</v>
+        <v>0.1955092542034012</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3453899347825769</v>
+        <v>0.3554398619992527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -1215,19 +1215,19 @@
         <v>65927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51668</v>
+        <v>52147</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80134</v>
+        <v>79888</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2125688847561096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1665934381532583</v>
+        <v>0.1681394611236885</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.25837699485776</v>
+        <v>0.2575840910034357</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>23856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15976</v>
+        <v>16201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34396</v>
+        <v>34118</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1613629102994081</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1080607675048327</v>
+        <v>0.1095874028408508</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2326600606336602</v>
+        <v>0.2307764711630861</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1340,19 +1340,19 @@
         <v>23111</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15854</v>
+        <v>15866</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31755</v>
+        <v>32515</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2435570011724531</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.167075590586022</v>
+        <v>0.1672109138685316</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3346554933679126</v>
+        <v>0.3426658209425384</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -1361,19 +1361,19 @@
         <v>46967</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36003</v>
+        <v>34959</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59395</v>
+        <v>59235</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1934947822495468</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1483281880637549</v>
+        <v>0.1440257953447303</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2446971460455822</v>
+        <v>0.2440384247340542</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>103356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90808</v>
+        <v>91763</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114514</v>
+        <v>113239</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6991124072096416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6142329592514802</v>
+        <v>0.6206985003295679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7745833476703248</v>
+        <v>0.7659619014943239</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1411,19 +1411,19 @@
         <v>52446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43503</v>
+        <v>43349</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62097</v>
+        <v>61781</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.552709533523644</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4584622014722325</v>
+        <v>0.4568389581930324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6544186216896711</v>
+        <v>0.651083913210012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -1432,19 +1432,19 @@
         <v>155802</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141642</v>
+        <v>140241</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170195</v>
+        <v>170397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6418796020232348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5835420346392459</v>
+        <v>0.5777700137881763</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7011762689318305</v>
+        <v>0.7020090277477921</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>20627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12160</v>
+        <v>12080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30983</v>
+        <v>30345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1395246824909502</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08224830976919914</v>
+        <v>0.0817093573695285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2095729592237036</v>
+        <v>0.2052584731315025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1482,19 +1482,19 @@
         <v>19332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12257</v>
+        <v>12424</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26517</v>
+        <v>27053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2037334653039028</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1291671878229744</v>
+        <v>0.1309332190239311</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2794544654975255</v>
+        <v>0.2851055172584918</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1503,19 +1503,19 @@
         <v>39959</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29715</v>
+        <v>29340</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53361</v>
+        <v>53395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1646256157272184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1224206915601044</v>
+        <v>0.1208768676397295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2198376379303532</v>
+        <v>0.2199801614787979</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>28317</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19761</v>
+        <v>18792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39094</v>
+        <v>39124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1660970256856903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1159084929773223</v>
+        <v>0.1102259828492212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2293074635917125</v>
+        <v>0.2294825964147416</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1628,19 +1628,19 @@
         <v>19047</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11688</v>
+        <v>11883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27243</v>
+        <v>28278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1810190028622285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1110788102699459</v>
+        <v>0.1129389889120148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2589168433007837</v>
+        <v>0.2687561244464088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1649,19 +1649,19 @@
         <v>47364</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35803</v>
+        <v>35956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60220</v>
+        <v>61705</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1717917605532967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1298597782156887</v>
+        <v>0.1304145914223983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2184219758317267</v>
+        <v>0.2238069987706719</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>105499</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92616</v>
+        <v>93077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>118271</v>
+        <v>117435</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6188121329048079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5432444968468665</v>
+        <v>0.5459464984292147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6937232533348562</v>
+        <v>0.6888214720541866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -1699,19 +1699,19 @@
         <v>62763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52506</v>
+        <v>52815</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71868</v>
+        <v>72258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5964971822291992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4990121592980572</v>
+        <v>0.5019528316595532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6830316231376542</v>
+        <v>0.6867345200206658</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -1720,19 +1720,19 @@
         <v>168262</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>151086</v>
+        <v>151252</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>184306</v>
+        <v>183896</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6102959874786434</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5479967052713361</v>
+        <v>0.5485978624179264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6684871833436797</v>
+        <v>0.6669988691347686</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>36670</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25830</v>
+        <v>26671</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48578</v>
+        <v>48648</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2150908414095019</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1515067877615484</v>
+        <v>0.1564381989416371</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2849387711976845</v>
+        <v>0.2853445526041701</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -1770,19 +1770,19 @@
         <v>23410</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16180</v>
+        <v>16009</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32857</v>
+        <v>32853</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2224838149085722</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1537749053573539</v>
+        <v>0.1521485474519599</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3122756230315616</v>
+        <v>0.3122327448106813</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -1791,19 +1791,19 @@
         <v>60080</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46730</v>
+        <v>47936</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74714</v>
+        <v>74471</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2179122519680599</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.169490532375759</v>
+        <v>0.1738667290334134</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2709921589940979</v>
+        <v>0.2701093452373328</v>
       </c>
     </row>
     <row r="19">
@@ -1895,7 +1895,7 @@
         <v>11610</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6956</v>
+        <v>6446</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>18676</v>
@@ -1904,10 +1904,10 @@
         <v>0.1376742141262295</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08248961973504765</v>
+        <v>0.07644074662911636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2214656181834051</v>
+        <v>0.2214663176445926</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1916,19 +1916,19 @@
         <v>11797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6191</v>
+        <v>6585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19486</v>
+        <v>19628</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1981803400856504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1040132013806124</v>
+        <v>0.1106282651267528</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3273576915415885</v>
+        <v>0.3297332130369682</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1937,19 +1937,19 @@
         <v>23407</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15370</v>
+        <v>16074</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32941</v>
+        <v>33567</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1627112711759058</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1068439300286342</v>
+        <v>0.1117362662988724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2289844177702128</v>
+        <v>0.2333369792238788</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>63802</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55199</v>
+        <v>55995</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70198</v>
+        <v>70866</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7565809648789391</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6545697786176918</v>
+        <v>0.6640040103146206</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8324288419658348</v>
+        <v>0.8403527159458181</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -1987,19 +1987,19 @@
         <v>43283</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35597</v>
+        <v>35516</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50170</v>
+        <v>49590</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7271289965762492</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.598009547747021</v>
+        <v>0.5966408306627302</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8428240152659128</v>
+        <v>0.8330893810712705</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -2008,19 +2008,19 @@
         <v>107085</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>95153</v>
+        <v>94648</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>116663</v>
+        <v>116362</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7443939243284625</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6614497089203346</v>
+        <v>0.6579390312329746</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8109730667097224</v>
+        <v>0.8088833618769496</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>8917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4357</v>
+        <v>4591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15426</v>
+        <v>15918</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1057448209948314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05166449589329043</v>
+        <v>0.0544448310431519</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.182929271184531</v>
+        <v>0.1887551544803821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2058,19 +2058,19 @@
         <v>4446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1647</v>
+        <v>944</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11524</v>
+        <v>10534</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07469066333810041</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02766296225010563</v>
+        <v>0.01585570936717867</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1935887577282992</v>
+        <v>0.1769612722920232</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2079,19 +2079,19 @@
         <v>13363</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7426</v>
+        <v>7772</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22348</v>
+        <v>22244</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0928948044956317</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05162379973550405</v>
+        <v>0.05402879378162985</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1553515054098673</v>
+        <v>0.1546287245396597</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>14379</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8635</v>
+        <v>8431</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22241</v>
+        <v>21533</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1147311933530012</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06889652067017722</v>
+        <v>0.06727429296495319</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1774593437483037</v>
+        <v>0.1718124859838029</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2204,19 +2204,19 @@
         <v>9210</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4221</v>
+        <v>4363</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16505</v>
+        <v>18074</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1416724240849247</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06493377518883191</v>
+        <v>0.06712006879012336</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2539019484720583</v>
+        <v>0.2780345039398268</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -2225,19 +2225,19 @@
         <v>23589</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15742</v>
+        <v>15683</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34813</v>
+        <v>33773</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1239327500525808</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0827082706557213</v>
+        <v>0.08239502635329525</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1829027164371722</v>
+        <v>0.1774405421316531</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>93210</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>82828</v>
+        <v>82667</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102169</v>
+        <v>102010</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7437257159819796</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6608889749167802</v>
+        <v>0.6596067738766203</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8152144273258615</v>
+        <v>0.8139457225193499</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2275,19 +2275,19 @@
         <v>37911</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30813</v>
+        <v>29978</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46193</v>
+        <v>45282</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.583189748906053</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4740024729089942</v>
+        <v>0.4611573187067154</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7105776910708438</v>
+        <v>0.6965785469660837</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>129</v>
@@ -2296,19 +2296,19 @@
         <v>131121</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117381</v>
+        <v>118173</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142929</v>
+        <v>143200</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6888959712658029</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6167072369959721</v>
+        <v>0.6208692014258783</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7509318167244869</v>
+        <v>0.7523587414706554</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>17739</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9985</v>
+        <v>11588</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26109</v>
+        <v>26010</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1415430906650192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07967398486379963</v>
+        <v>0.09246024850151856</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2083271882602799</v>
+        <v>0.2075356355702618</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2346,19 +2346,19 @@
         <v>17886</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11288</v>
+        <v>11727</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25322</v>
+        <v>25544</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2751378270090223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1736363855068276</v>
+        <v>0.1804023586210153</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3895244045497605</v>
+        <v>0.3929362104626141</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>36</v>
@@ -2367,19 +2367,19 @@
         <v>35625</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26267</v>
+        <v>26583</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48267</v>
+        <v>48152</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1871712786816163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1380053215290652</v>
+        <v>0.1396641893709148</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2535895601671772</v>
+        <v>0.2529836831850786</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>47536</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35893</v>
+        <v>35930</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61068</v>
+        <v>59902</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2023014841167523</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1527508556325105</v>
+        <v>0.1529109495543053</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2598909748858801</v>
+        <v>0.2549272168480157</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -2492,19 +2492,19 @@
         <v>29812</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21480</v>
+        <v>21812</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41183</v>
+        <v>41064</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1847646543697402</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1331267218702606</v>
+        <v>0.1351838125363333</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2552329379284958</v>
+        <v>0.2544992230722729</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>76</v>
@@ -2513,19 +2513,19 @@
         <v>77348</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61469</v>
+        <v>62469</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>93102</v>
+        <v>93654</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1951619200039736</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1550964367985391</v>
+        <v>0.1576198432215668</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2349101626914889</v>
+        <v>0.2363049339145143</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>162966</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>147605</v>
+        <v>148033</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>177411</v>
+        <v>177607</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6935428893987233</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6281709404391956</v>
+        <v>0.6299940816232563</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.755019311874528</v>
+        <v>0.7558533802175507</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -2563,19 +2563,19 @@
         <v>86266</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>74149</v>
+        <v>73556</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>99181</v>
+        <v>99917</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5346413285682642</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4595459727371883</v>
+        <v>0.455867214743366</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.61468032485033</v>
+        <v>0.6192459609238138</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>243</v>
@@ -2584,19 +2584,19 @@
         <v>249232</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>229699</v>
+        <v>230024</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>270260</v>
+        <v>268829</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6288511579092867</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5795661060554157</v>
+        <v>0.5803865326771354</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6819092854984723</v>
+        <v>0.6782976889304392</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>24474</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16582</v>
+        <v>16501</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38343</v>
+        <v>35548</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1041556264845244</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07057002552790705</v>
+        <v>0.07022280104836522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1631803464221145</v>
+        <v>0.1512817211331832</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>45</v>
@@ -2634,19 +2634,19 @@
         <v>45275</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34815</v>
+        <v>33904</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57937</v>
+        <v>56809</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2805940170619957</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2157690842065146</v>
+        <v>0.2101214894878791</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3590683545419625</v>
+        <v>0.3520767905319078</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>69</v>
@@ -2655,19 +2655,19 @@
         <v>69749</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>55007</v>
+        <v>53998</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>86643</v>
+        <v>86129</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1759869220867397</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.138791480410018</v>
+        <v>0.1362460748606386</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2186137286702026</v>
+        <v>0.2173180636534298</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>41833</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31344</v>
+        <v>31028</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55106</v>
+        <v>54559</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1325455553493385</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09930991299245909</v>
+        <v>0.09830998145932472</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1745970638500448</v>
+        <v>0.17286557193335</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -2780,19 +2780,19 @@
         <v>37644</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27001</v>
+        <v>27489</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50436</v>
+        <v>49570</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.201986434225262</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1448783804496959</v>
+        <v>0.1474976900888636</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2706258390860757</v>
+        <v>0.2659766254972927</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>77</v>
@@ -2801,19 +2801,19 @@
         <v>79477</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>64221</v>
+        <v>63597</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97158</v>
+        <v>98116</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1583263275717359</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1279343612606252</v>
+        <v>0.1266916414248728</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1935478861524126</v>
+        <v>0.1954559977572797</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>235886</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>220546</v>
+        <v>218435</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>250737</v>
+        <v>250268</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7473831666934492</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6987800300707595</v>
+        <v>0.6920895285258587</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7944384193731439</v>
+        <v>0.7929500024411253</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>122</v>
@@ -2851,19 +2851,19 @@
         <v>126638</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>112122</v>
+        <v>112722</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>138699</v>
+        <v>139925</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6795051293942769</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6016151258849544</v>
+        <v>0.6048362056877403</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7442225514196089</v>
+        <v>0.7508003681910583</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>347</v>
@@ -2872,19 +2872,19 @@
         <v>362524</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>340835</v>
+        <v>340412</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>382018</v>
+        <v>382771</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.7221826184452027</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6789753185578522</v>
+        <v>0.6781324954435045</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7610155328893241</v>
+        <v>0.7625153872555706</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>37896</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>27997</v>
+        <v>27822</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>50456</v>
+        <v>51682</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1200712779572123</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08870614729692249</v>
+        <v>0.08815119741235002</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1598662550735742</v>
+        <v>0.1637493561920866</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>22</v>
@@ -2922,19 +2922,19 @@
         <v>22086</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14801</v>
+        <v>14374</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>32803</v>
+        <v>32181</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1185084363804611</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07941601128653465</v>
+        <v>0.077127991316116</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1760133780170667</v>
+        <v>0.1726727397202411</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>60</v>
@@ -2943,19 +2943,19 @@
         <v>59983</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>46390</v>
+        <v>46929</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>74298</v>
+        <v>75005</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1194910539830615</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09241294105319481</v>
+        <v>0.09348654009040917</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.148007908030285</v>
+        <v>0.1494180609270953</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>215817</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>188295</v>
+        <v>191020</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>244337</v>
+        <v>246475</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1560027249101229</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1361079951544549</v>
+        <v>0.1380782491001688</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.176617771923253</v>
+        <v>0.1781636123130676</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>152</v>
@@ -3068,19 +3068,19 @@
         <v>159958</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>138411</v>
+        <v>138421</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>183632</v>
+        <v>186369</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1852803045199973</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1603226508291286</v>
+        <v>0.1603337361530417</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2127017059751829</v>
+        <v>0.2158721928232974</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>362</v>
@@ -3089,19 +3089,19 @@
         <v>375775</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>342575</v>
+        <v>342071</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>413126</v>
+        <v>414131</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1672528496111313</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1524756991822979</v>
+        <v>0.1522513737518</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1838772078987084</v>
+        <v>0.1843246893033011</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>975027</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>940013</v>
+        <v>941953</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1012426</v>
+        <v>1008213</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7047943714214205</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.679484780146253</v>
+        <v>0.6808873783169015</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.731828099155324</v>
+        <v>0.7287833517273493</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>515</v>
@@ -3139,19 +3139,19 @@
         <v>526495</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>497754</v>
+        <v>498812</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>551490</v>
+        <v>556491</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6098417386294808</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5765507574094</v>
+        <v>0.5777763322570553</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6387941739296521</v>
+        <v>0.644586220297986</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1468</v>
@@ -3160,19 +3160,19 @@
         <v>1501521</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1453754</v>
+        <v>1455509</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1544666</v>
+        <v>1547988</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6683081258426329</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6470475921271874</v>
+        <v>0.6478287580209584</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6875113537488036</v>
+        <v>0.6889897188962755</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>192576</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>168027</v>
+        <v>166248</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>219543</v>
+        <v>220423</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1392029036684565</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1214580129406926</v>
+        <v>0.1201719894130831</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1586960053155585</v>
+        <v>0.1593316063980911</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>178</v>
@@ -3210,19 +3210,19 @@
         <v>176877</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>155483</v>
+        <v>154123</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>202435</v>
+        <v>200972</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.204877956850522</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1800964439960327</v>
+        <v>0.1785216306458563</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2344816075500193</v>
+        <v>0.2327874657376076</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>362</v>
@@ -3231,19 +3231,19 @@
         <v>369453</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>335495</v>
+        <v>334654</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>404797</v>
+        <v>404464</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1644390245462358</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1493246499780266</v>
+        <v>0.1489500421922199</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1801699951788216</v>
+        <v>0.1800216575865614</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>51160</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39969</v>
+        <v>39832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62565</v>
+        <v>63450</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3748541472620268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2928561647191747</v>
+        <v>0.2918511060941342</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4584173240074525</v>
+        <v>0.4649059928608013</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3600,19 +3600,19 @@
         <v>26888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17960</v>
+        <v>18041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37322</v>
+        <v>37210</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2745627782333336</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1833938039809615</v>
+        <v>0.1842177933653422</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3811018154146071</v>
+        <v>0.3799657753252237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -3621,19 +3621,19 @@
         <v>78048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63563</v>
+        <v>62958</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93038</v>
+        <v>92663</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3329548833157053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.271162035188931</v>
+        <v>0.2685785892992679</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3968990423075928</v>
+        <v>0.3952993097617668</v>
       </c>
     </row>
     <row r="5">
@@ -3650,19 +3650,19 @@
         <v>54444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43484</v>
+        <v>42804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66825</v>
+        <v>67029</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3989154011818096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.318613710188023</v>
+        <v>0.3136266923937212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4896337240776527</v>
+        <v>0.4911263909296332</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -3671,19 +3671,19 @@
         <v>38400</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29201</v>
+        <v>28819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50247</v>
+        <v>49851</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3921149691347464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2981795791414473</v>
+        <v>0.2942792897294608</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5130841880626544</v>
+        <v>0.5090435533524308</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -3692,19 +3692,19 @@
         <v>92844</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77021</v>
+        <v>77778</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108538</v>
+        <v>109820</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3960743481575218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3285710174265358</v>
+        <v>0.3318038342776093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4630245304333361</v>
+        <v>0.4684930255956464</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>30876</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21888</v>
+        <v>21958</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42513</v>
+        <v>42271</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2262304515561637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1603759242932421</v>
+        <v>0.1608848683456692</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3114948041423319</v>
+        <v>0.3097229265379091</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -3742,19 +3742,19 @@
         <v>32643</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22955</v>
+        <v>21979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42627</v>
+        <v>43414</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3333222526319199</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2344023112089445</v>
+        <v>0.2244326724648895</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4352787873440302</v>
+        <v>0.4433148290529913</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -3763,19 +3763,19 @@
         <v>63519</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49402</v>
+        <v>50083</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77817</v>
+        <v>78268</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2709707685267729</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2107511427389236</v>
+        <v>0.2136557789614301</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3319690864813281</v>
+        <v>0.3338903988696424</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>75603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61227</v>
+        <v>61220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90831</v>
+        <v>92390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3649846522467702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2955813357628703</v>
+        <v>0.2955456243256636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4385008224437657</v>
+        <v>0.4460223683652373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -3888,19 +3888,19 @@
         <v>46898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36140</v>
+        <v>36047</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59809</v>
+        <v>59798</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3101363134368749</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2389955748229669</v>
+        <v>0.2383796381978468</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.395517575711345</v>
+        <v>0.3954393810854983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -3909,19 +3909,19 @@
         <v>122501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>103914</v>
+        <v>104229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140768</v>
+        <v>143298</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3418400918059431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2899718062792668</v>
+        <v>0.2908497382415799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3928114221556886</v>
+        <v>0.3998723762558234</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>89593</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74350</v>
+        <v>74961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>105662</v>
+        <v>105392</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.432522388887726</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.358933411348647</v>
+        <v>0.3618826566095812</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5100957104535651</v>
+        <v>0.5087948132251169</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -3959,19 +3959,19 @@
         <v>67162</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55925</v>
+        <v>53843</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>81509</v>
+        <v>79999</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4441398232769002</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3698327709207074</v>
+        <v>0.3560599576131436</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5390148371653478</v>
+        <v>0.5290300437418236</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>143</v>
@@ -3980,19 +3980,19 @@
         <v>156755</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>137627</v>
+        <v>137611</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>177174</v>
+        <v>176577</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4374246415032432</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3840465400496227</v>
+        <v>0.3840026964250164</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4944045023800577</v>
+        <v>0.4927387110546488</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>41945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30831</v>
+        <v>29692</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54919</v>
+        <v>55176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2024929588655038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.148840493001135</v>
+        <v>0.1433418574394244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2651304871415257</v>
+        <v>0.266370585842119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -4030,19 +4030,19 @@
         <v>37158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27588</v>
+        <v>26816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49500</v>
+        <v>50521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2457238632862248</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1824395189096192</v>
+        <v>0.1773325097699064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3273429132738307</v>
+        <v>0.334093011522938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -4051,19 +4051,19 @@
         <v>79102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64371</v>
+        <v>63384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95390</v>
+        <v>96940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2207352666908136</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1796270761860317</v>
+        <v>0.1768732136421692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2661866201154347</v>
+        <v>0.2705121960081798</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>42589</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32032</v>
+        <v>32290</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54353</v>
+        <v>53861</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3352460204113158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2521444043723953</v>
+        <v>0.2541755462360551</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4278545155906491</v>
+        <v>0.4239819255683176</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -4176,19 +4176,19 @@
         <v>25527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18010</v>
+        <v>16343</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35078</v>
+        <v>35042</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2919595007780508</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2059872656656458</v>
+        <v>0.1869194938296496</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4012023162561742</v>
+        <v>0.4007920044565616</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -4197,19 +4197,19 @@
         <v>68116</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>54954</v>
+        <v>54774</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>81868</v>
+        <v>81910</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3175994269237124</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2562312865109396</v>
+        <v>0.25539144549955</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3817188834227445</v>
+        <v>0.3819176306318893</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>62230</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52235</v>
+        <v>50935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74032</v>
+        <v>73923</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4898608008290123</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4111831128719906</v>
+        <v>0.4009456349253077</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5827564089970981</v>
+        <v>0.5819009147098111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4247,19 +4247,19 @@
         <v>40872</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30993</v>
+        <v>31897</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49817</v>
+        <v>52675</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4674659458336708</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3544819019942869</v>
+        <v>0.3648166427513133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5697763960432639</v>
+        <v>0.6024647118217061</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -4268,19 +4268,19 @@
         <v>103103</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88100</v>
+        <v>87945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117247</v>
+        <v>117884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4807311016601996</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.410778004860882</v>
+        <v>0.4100537647650274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5466798927670213</v>
+        <v>0.5496506561365497</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>22218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14486</v>
+        <v>14489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32104</v>
+        <v>31944</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1748931787596719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.114028388531909</v>
+        <v>0.1140532369320424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2527114393537499</v>
+        <v>0.2514579554546699</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -4318,19 +4318,19 @@
         <v>21034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13947</v>
+        <v>13547</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30456</v>
+        <v>30781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2405745533882784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1595172386269074</v>
+        <v>0.1549450007445244</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3483345702895801</v>
+        <v>0.3520577224712504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -4339,19 +4339,19 @@
         <v>43252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32082</v>
+        <v>32201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57246</v>
+        <v>57367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.201669471416088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1495879823948894</v>
+        <v>0.1501419998067968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2669166938582263</v>
+        <v>0.2674800691688517</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>39622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30075</v>
+        <v>29418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51852</v>
+        <v>52025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3024899089398411</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.229607441398622</v>
+        <v>0.2245892909564098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3958585927497065</v>
+        <v>0.3971791989825729</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -4464,19 +4464,19 @@
         <v>33010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24002</v>
+        <v>24774</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43100</v>
+        <v>44195</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3174542692051253</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2308242250163039</v>
+        <v>0.2382508597290785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4144862078283267</v>
+        <v>0.4250141916445588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -4485,19 +4485,19 @@
         <v>72632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57525</v>
+        <v>57952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87125</v>
+        <v>87333</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3091122472485349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2448184496712628</v>
+        <v>0.246637153742471</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3707916021497317</v>
+        <v>0.3716795285986759</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>73071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59827</v>
+        <v>60223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83922</v>
+        <v>84971</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5578509304460947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4567468859883827</v>
+        <v>0.4597634140680741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6406938875004609</v>
+        <v>0.6487034923985753</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -4535,19 +4535,19 @@
         <v>50194</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39863</v>
+        <v>39934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60386</v>
+        <v>61680</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4827134622695693</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3833580040996848</v>
+        <v>0.3840443772700274</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.580723838144067</v>
+        <v>0.5931713550804616</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -4556,19 +4556,19 @@
         <v>123265</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>107292</v>
+        <v>107671</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140550</v>
+        <v>139865</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5245995434771498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4566229116091771</v>
+        <v>0.4582363217479568</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5981653263951882</v>
+        <v>0.5952485217132414</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>18293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11281</v>
+        <v>10811</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27162</v>
+        <v>28699</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1396591606140642</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08612100786732507</v>
+        <v>0.08253253631768687</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2073669525722592</v>
+        <v>0.2191027413653483</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -4606,19 +4606,19 @@
         <v>20779</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14229</v>
+        <v>12979</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30100</v>
+        <v>30219</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1998322685253054</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1368363883551159</v>
+        <v>0.1248154881179521</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2894670835826123</v>
+        <v>0.2906143433325922</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -4627,19 +4627,19 @@
         <v>39073</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28283</v>
+        <v>28626</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>53799</v>
+        <v>52758</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1662882092743153</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.120367966878404</v>
+        <v>0.1218292964354066</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2289638207905857</v>
+        <v>0.2245297909337138</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>32795</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24295</v>
+        <v>24507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42915</v>
+        <v>43451</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3588073012104126</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2658118898667273</v>
+        <v>0.2681269190744835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4695344411452735</v>
+        <v>0.4754002272023737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -4752,19 +4752,19 @@
         <v>14434</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7846</v>
+        <v>8530</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21654</v>
+        <v>21746</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2205670811964902</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.119905451700028</v>
+        <v>0.1303580078478928</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3308973609508185</v>
+        <v>0.3323120985737258</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -4773,19 +4773,19 @@
         <v>47229</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36136</v>
+        <v>35780</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58703</v>
+        <v>59489</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3011279897370556</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2304034001362987</v>
+        <v>0.2281327880384514</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3742866615630272</v>
+        <v>0.3793012678049542</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>49367</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39551</v>
+        <v>39775</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59146</v>
+        <v>59174</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5401238554843841</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4327270165857051</v>
+        <v>0.4351849988137878</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6471144766433113</v>
+        <v>0.6474207778160952</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>35</v>
@@ -4823,19 +4823,19 @@
         <v>37162</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29250</v>
+        <v>28433</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45183</v>
+        <v>44803</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5678843664480453</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4469810935413691</v>
+        <v>0.4344995318608402</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6904569264821261</v>
+        <v>0.6846558829665189</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -4844,19 +4844,19 @@
         <v>86529</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73366</v>
+        <v>72837</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>98862</v>
+        <v>98699</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5517066434629572</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4677821214142743</v>
+        <v>0.4644053540882714</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6303386365092122</v>
+        <v>0.6293042390777687</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>9238</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4377</v>
+        <v>4460</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16753</v>
+        <v>17830</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1010688433052032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04788710349271552</v>
+        <v>0.04880157271004085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1833006758310304</v>
+        <v>0.1950780234517115</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4894,19 +4894,19 @@
         <v>13844</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7839</v>
+        <v>8633</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20837</v>
+        <v>21578</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2115485523554644</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1197916721468463</v>
+        <v>0.131926087271903</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3184170374498378</v>
+        <v>0.3297478890725901</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -4915,19 +4915,19 @@
         <v>23081</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14710</v>
+        <v>15803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33026</v>
+        <v>34706</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1471653667999872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09379158645755632</v>
+        <v>0.1007611395058662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2105726089031906</v>
+        <v>0.221286487481441</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>33893</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25744</v>
+        <v>25549</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43372</v>
+        <v>43821</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4047384012718044</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3074260639740911</v>
+        <v>0.3050994115710198</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.517935454336983</v>
+        <v>0.5232994302876542</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -5040,19 +5040,19 @@
         <v>16768</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10863</v>
+        <v>10185</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24861</v>
+        <v>24881</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2507203639730377</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1624249658376553</v>
+        <v>0.1522925020331146</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3717362005004652</v>
+        <v>0.3720327325072078</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>48</v>
@@ -5061,19 +5061,19 @@
         <v>50661</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39395</v>
+        <v>40325</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>63104</v>
+        <v>63153</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3363503796171599</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2615532771309709</v>
+        <v>0.2677252643564886</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4189630343296527</v>
+        <v>0.4192922466985533</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>37566</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28088</v>
+        <v>28724</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46287</v>
+        <v>46770</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4486019651278683</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3354156049099334</v>
+        <v>0.3430184649202341</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5527440352321731</v>
+        <v>0.5585171753448686</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -5111,19 +5111,19 @@
         <v>34462</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26132</v>
+        <v>25742</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42171</v>
+        <v>42319</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5152954550225284</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3907330233322034</v>
+        <v>0.3849008035432539</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6305550018026209</v>
+        <v>0.6327640583446236</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -5132,19 +5132,19 @@
         <v>72028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59945</v>
+        <v>60425</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>84346</v>
+        <v>84136</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4782156124066754</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3979910100599498</v>
+        <v>0.401177946894742</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5599974776076238</v>
+        <v>0.5585991741168997</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>12281</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6825</v>
+        <v>6774</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19529</v>
+        <v>19035</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1466596336003273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08150735750979769</v>
+        <v>0.08089917566601791</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2332120379923307</v>
+        <v>0.2273150448366937</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -5182,19 +5182,19 @@
         <v>15649</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9400</v>
+        <v>9204</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23464</v>
+        <v>22979</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2339841810044339</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1405461952841451</v>
+        <v>0.1376272684912618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3508434695481324</v>
+        <v>0.3435968287652017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -5203,19 +5203,19 @@
         <v>27930</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19589</v>
+        <v>18877</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38954</v>
+        <v>38875</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1854340079761647</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1300559147545695</v>
+        <v>0.1253313256927795</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2586281259989521</v>
+        <v>0.2581004915110872</v>
       </c>
     </row>
     <row r="27">
@@ -5307,19 +5307,19 @@
         <v>73594</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58199</v>
+        <v>59643</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>90896</v>
+        <v>90202</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2626542855000877</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.207709652987239</v>
+        <v>0.2128640829398974</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3244033750850807</v>
+        <v>0.3219285434042372</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>63</v>
@@ -5328,19 +5328,19 @@
         <v>68893</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55516</v>
+        <v>55403</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>83044</v>
+        <v>84874</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.354115543575394</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2853548413841428</v>
+        <v>0.2847729719280711</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4268519186835866</v>
+        <v>0.4362560731826142</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>131</v>
@@ -5349,19 +5349,19 @@
         <v>142487</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>122748</v>
+        <v>121630</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>165100</v>
+        <v>161630</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3001350339122924</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2585560902237528</v>
+        <v>0.2562021182283408</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3477667578769532</v>
+        <v>0.3404576230250663</v>
       </c>
     </row>
     <row r="29">
@@ -5378,19 +5378,19 @@
         <v>166815</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>150535</v>
+        <v>149714</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>185164</v>
+        <v>183450</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5953568654389914</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5372541733263602</v>
+        <v>0.5343214293707137</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6608434969255528</v>
+        <v>0.65472399810421</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>85</v>
@@ -5399,19 +5399,19 @@
         <v>92230</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>78150</v>
+        <v>77118</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>106893</v>
+        <v>106598</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4740667992113083</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4016973246605961</v>
+        <v>0.39639128738312</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5494379282992199</v>
+        <v>0.5479185539113528</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>244</v>
@@ -5420,19 +5420,19 @@
         <v>259045</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>236130</v>
+        <v>238671</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>281992</v>
+        <v>281999</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5456522959541024</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4973836011487872</v>
+        <v>0.5027362938153151</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5939880628010215</v>
+        <v>0.5940023294818731</v>
       </c>
     </row>
     <row r="30">
@@ -5449,19 +5449,19 @@
         <v>39784</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27211</v>
+        <v>28005</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52989</v>
+        <v>52480</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1419888490609209</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09711474786807205</v>
+        <v>0.09994839281160424</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1891156981147882</v>
+        <v>0.1873003492484159</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -5470,19 +5470,19 @@
         <v>33427</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22893</v>
+        <v>23345</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>45989</v>
+        <v>46117</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1718176572132976</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1176738285665079</v>
+        <v>0.1199930916839213</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.236385284557643</v>
+        <v>0.2370430032774181</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -5491,19 +5491,19 @@
         <v>73212</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>57320</v>
+        <v>58063</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>90939</v>
+        <v>90715</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1542126701336053</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.120739692468616</v>
+        <v>0.1223045861667005</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.191554169052352</v>
+        <v>0.1910810387584254</v>
       </c>
     </row>
     <row r="31">
@@ -5595,19 +5595,19 @@
         <v>56806</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44358</v>
+        <v>44611</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>73184</v>
+        <v>71827</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1918133507164568</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1497816380193919</v>
+        <v>0.1506341350759502</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.247113918751122</v>
+        <v>0.2425313585565018</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>22</v>
@@ -5616,19 +5616,19 @@
         <v>25770</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16582</v>
+        <v>16311</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36791</v>
+        <v>37306</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.123398418809788</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07940107366054108</v>
+        <v>0.0781038200892525</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1761728199763086</v>
+        <v>0.1786395197360049</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>73</v>
@@ -5637,19 +5637,19 @@
         <v>82576</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66097</v>
+        <v>67300</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100906</v>
+        <v>102251</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1635206945746898</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1308875175296547</v>
+        <v>0.1332706929559819</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1998170607740654</v>
+        <v>0.2024814051640588</v>
       </c>
     </row>
     <row r="33">
@@ -5666,19 +5666,19 @@
         <v>197089</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>178410</v>
+        <v>181131</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>214102</v>
+        <v>213649</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6654941639345608</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6024240261253219</v>
+        <v>0.6116113536005985</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7229424293915778</v>
+        <v>0.721413077220713</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>138</v>
@@ -5687,19 +5687,19 @@
         <v>151584</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>138909</v>
+        <v>136562</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>165577</v>
+        <v>163789</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7258503722490454</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6651604443411789</v>
+        <v>0.6539178345921626</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7928564820319772</v>
+        <v>0.7842951050975712</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>323</v>
@@ -5708,19 +5708,19 @@
         <v>348672</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>327485</v>
+        <v>324942</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>372464</v>
+        <v>367807</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6904541748601306</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6484976138673947</v>
+        <v>0.6434628510884272</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7375676377630588</v>
+        <v>0.7283450373369971</v>
       </c>
     </row>
     <row r="34">
@@ -5737,19 +5737,19 @@
         <v>42259</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>29974</v>
+        <v>30290</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>56637</v>
+        <v>54834</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1426924853489824</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1012125225992198</v>
+        <v>0.1022764573849169</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1912401441714119</v>
+        <v>0.1851552141066187</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -5758,19 +5758,19 @@
         <v>31482</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>21511</v>
+        <v>22192</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>42687</v>
+        <v>42959</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1507512089411666</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1030037639854998</v>
+        <v>0.1062672885663518</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2044057867041848</v>
+        <v>0.2057077425819747</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>68</v>
@@ -5779,19 +5779,19 @@
         <v>73741</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>58703</v>
+        <v>58024</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>90737</v>
+        <v>92384</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1460251305651795</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1162461003570545</v>
+        <v>0.1149003319810281</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1796799582841475</v>
+        <v>0.1829416162966367</v>
       </c>
     </row>
     <row r="35">
@@ -5883,19 +5883,19 @@
         <v>406062</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>372483</v>
+        <v>366215</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>442984</v>
+        <v>438450</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3000905972334366</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2752750337473396</v>
+        <v>0.270642366018523</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3273768866232208</v>
+        <v>0.3240257561695226</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>237</v>
@@ -5904,19 +5904,19 @@
         <v>258188</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>230494</v>
+        <v>229660</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>287959</v>
+        <v>285997</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2644639569567376</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2360961339416115</v>
+        <v>0.2352426229173227</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2949585368991613</v>
+        <v>0.2929482519259787</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>612</v>
@@ -5925,19 +5925,19 @@
         <v>664250</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>619915</v>
+        <v>619482</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>708446</v>
+        <v>708477</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.285159203998241</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2661262231909438</v>
+        <v>0.2659401857350793</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3041319435156949</v>
+        <v>0.3041453273482898</v>
       </c>
     </row>
     <row r="37">
@@ -5954,19 +5954,19 @@
         <v>730176</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>693274</v>
+        <v>691176</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>765869</v>
+        <v>770470</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5396189194697202</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5123473068250998</v>
+        <v>0.5107973233466294</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5659974173578577</v>
+        <v>0.5693977835625742</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>472</v>
@@ -5975,19 +5975,19 @@
         <v>512066</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>479274</v>
+        <v>479421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>543907</v>
+        <v>544640</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5245129264439902</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4909233036461051</v>
+        <v>0.4910745978839425</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5571274376556867</v>
+        <v>0.5578782196150346</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1163</v>
@@ -5996,19 +5996,19 @@
         <v>1242242</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1191637</v>
+        <v>1184173</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1294105</v>
+        <v>1287044</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.533287884033218</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5115632815575238</v>
+        <v>0.5083591757832555</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5555523281187997</v>
+        <v>0.5525213392241209</v>
       </c>
     </row>
     <row r="38">
@@ -6025,19 +6025,19 @@
         <v>216894</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>189086</v>
+        <v>190283</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>245285</v>
+        <v>246359</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1602904832968432</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1397395109932186</v>
+        <v>0.1406239536732701</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1812720524886706</v>
+        <v>0.1820658060043867</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>189</v>
@@ -6046,19 +6046,19 @@
         <v>206016</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>181441</v>
+        <v>181159</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>232026</v>
+        <v>233668</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2110231165992723</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1858507551635206</v>
+        <v>0.1855624688247544</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2376659511400016</v>
+        <v>0.2393476775645219</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>391</v>
@@ -6067,19 +6067,19 @@
         <v>422910</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>385532</v>
+        <v>385854</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>462797</v>
+        <v>461350</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.181552911968541</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1655066535796891</v>
+        <v>0.1656449182642601</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1986763157943169</v>
+        <v>0.1980551751417585</v>
       </c>
     </row>
     <row r="39">
@@ -6415,19 +6415,19 @@
         <v>39037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28658</v>
+        <v>28699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49360</v>
+        <v>50431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3700341450237047</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2716520420788303</v>
+        <v>0.2720438694002248</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4678891635747547</v>
+        <v>0.4780370415327243</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -6436,19 +6436,19 @@
         <v>23763</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16317</v>
+        <v>16735</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32458</v>
+        <v>32909</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3223664119729874</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2213487570323171</v>
+        <v>0.2270258827207719</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4403203991503674</v>
+        <v>0.4464372426483906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -6457,19 +6457,19 @@
         <v>62799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48954</v>
+        <v>49873</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76701</v>
+        <v>76392</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3504269917736992</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2731694334143538</v>
+        <v>0.2782945523361743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4280006594010258</v>
+        <v>0.4262779285097573</v>
       </c>
     </row>
     <row r="5">
@@ -6486,19 +6486,19 @@
         <v>42267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31305</v>
+        <v>31502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52841</v>
+        <v>52844</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4006565226655067</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.296745025869726</v>
+        <v>0.2986111845463155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5008872577706722</v>
+        <v>0.5009132517185654</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -6507,19 +6507,19 @@
         <v>30082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21547</v>
+        <v>22223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38394</v>
+        <v>38482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4080897387992869</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2923021226442696</v>
+        <v>0.30147754703589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5208449313163607</v>
+        <v>0.5220496352528582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -6528,19 +6528,19 @@
         <v>72349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59236</v>
+        <v>57758</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86734</v>
+        <v>85677</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4037140250585903</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3305407517659327</v>
+        <v>0.3222957097265351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4839850148685423</v>
+        <v>0.4780847294191344</v>
       </c>
     </row>
     <row r="6">
@@ -6557,19 +6557,19 @@
         <v>24191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15678</v>
+        <v>16319</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33777</v>
+        <v>33638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2293093323107886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1486154113464777</v>
+        <v>0.1546944268307847</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3201717131402067</v>
+        <v>0.3188610241483379</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -6578,19 +6578,19 @@
         <v>19869</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12966</v>
+        <v>12669</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28237</v>
+        <v>27456</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2695438492277257</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1759000898141993</v>
+        <v>0.1718676809464831</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3830579621632194</v>
+        <v>0.3724605437099958</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -6599,19 +6599,19 @@
         <v>44060</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32966</v>
+        <v>34299</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58506</v>
+        <v>57657</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2458589831677104</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1839561422934738</v>
+        <v>0.1913896211921713</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3264696748179143</v>
+        <v>0.321733780332543</v>
       </c>
     </row>
     <row r="7">
@@ -6703,19 +6703,19 @@
         <v>32973</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23012</v>
+        <v>24097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44233</v>
+        <v>45051</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1585060955888127</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1106230683382849</v>
+        <v>0.1158350846179922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2126324568206694</v>
+        <v>0.2165660157550833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -6724,19 +6724,19 @@
         <v>27974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19509</v>
+        <v>19448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38695</v>
+        <v>38423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1999980233540721</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1394769770522385</v>
+        <v>0.1390424554583775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2766423193145671</v>
+        <v>0.2747014217536125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -6745,19 +6745,19 @@
         <v>60947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48257</v>
+        <v>47771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>75673</v>
+        <v>76059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1751879274393105</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.138712008081754</v>
+        <v>0.137313227048776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2175160101308002</v>
+        <v>0.2186264326777494</v>
       </c>
     </row>
     <row r="9">
@@ -6774,19 +6774,19 @@
         <v>156706</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>143553</v>
+        <v>141950</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>168760</v>
+        <v>167734</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7533025191746394</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6900771609829869</v>
+        <v>0.6823684698960621</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8112493837505055</v>
+        <v>0.8063158310195082</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>93</v>
@@ -6795,19 +6795,19 @@
         <v>96775</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>84988</v>
+        <v>84896</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106932</v>
+        <v>106907</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6918798951534078</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6076121864280503</v>
+        <v>0.6069579930746002</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7644985133180735</v>
+        <v>0.7643191184879239</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>238</v>
@@ -6816,19 +6816,19 @@
         <v>253480</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>236565</v>
+        <v>236686</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>269663</v>
+        <v>268981</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7286075497932347</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6799866429529968</v>
+        <v>0.6803337314886984</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7751229816926302</v>
+        <v>0.7731615559041483</v>
       </c>
     </row>
     <row r="10">
@@ -6845,19 +6845,19 @@
         <v>18346</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10898</v>
+        <v>10908</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28249</v>
+        <v>28263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08819138523654779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05238690054483483</v>
+        <v>0.05243791937179137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1357958972795408</v>
+        <v>0.135864976925409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -6866,19 +6866,19 @@
         <v>15123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8330</v>
+        <v>8567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24246</v>
+        <v>24989</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1081220814925202</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0595510399216802</v>
+        <v>0.06124922913070306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1733427371735892</v>
+        <v>0.1786561819040272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -6887,19 +6887,19 @@
         <v>33469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23903</v>
+        <v>23970</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48106</v>
+        <v>46108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09620452276745468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06870698500732986</v>
+        <v>0.06890034073890713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1382763992703953</v>
+        <v>0.1325324166749597</v>
       </c>
     </row>
     <row r="11">
@@ -6991,19 +6991,19 @@
         <v>9885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5164</v>
+        <v>5313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17112</v>
+        <v>17896</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1026146056474267</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05361067817361041</v>
+        <v>0.05515003983701824</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1776356763696347</v>
+        <v>0.1857737233328861</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -7012,19 +7012,19 @@
         <v>13265</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7408</v>
+        <v>7642</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21658</v>
+        <v>21153</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.162951199392534</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09100202831349882</v>
+        <v>0.09387784391719711</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2660626371626775</v>
+        <v>0.2598511902978622</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -7033,19 +7033,19 @@
         <v>23150</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15134</v>
+        <v>15574</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33706</v>
+        <v>33448</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1302491126055983</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08514891114767316</v>
+        <v>0.08762763743556694</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1896430070837192</v>
+        <v>0.1881924884811669</v>
       </c>
     </row>
     <row r="13">
@@ -7062,19 +7062,19 @@
         <v>77041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67869</v>
+        <v>67958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83715</v>
+        <v>83624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.799756225443598</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7045430410381643</v>
+        <v>0.7054649941829696</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8690357933834179</v>
+        <v>0.8680863883684649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -7083,19 +7083,19 @@
         <v>63215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54695</v>
+        <v>55151</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69916</v>
+        <v>70046</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7765698487482493</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6719032807725657</v>
+        <v>0.6775073017795502</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8588837306948243</v>
+        <v>0.8604902186313187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -7104,19 +7104,19 @@
         <v>140256</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128446</v>
+        <v>129566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150920</v>
+        <v>151261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7891367315618381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7226852224209535</v>
+        <v>0.7289885437408765</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8491355020294736</v>
+        <v>0.8510540488110222</v>
       </c>
     </row>
     <row r="14">
@@ -7133,19 +7133,19 @@
         <v>9405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4893</v>
+        <v>4972</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16827</v>
+        <v>17027</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09762916890897526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05078917864735907</v>
+        <v>0.05160852141581598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1746789350195682</v>
+        <v>0.176760102107072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -7154,19 +7154,19 @@
         <v>4923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1947</v>
+        <v>1926</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10398</v>
+        <v>10771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06047895185921665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02391616577904746</v>
+        <v>0.02365871420326755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1277351096765336</v>
+        <v>0.1323210959547018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -7175,19 +7175,19 @@
         <v>14328</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8569</v>
+        <v>8505</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22970</v>
+        <v>22745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08061415583256359</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04821200815952149</v>
+        <v>0.04785392396210158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1292368022438826</v>
+        <v>0.127972644470242</v>
       </c>
     </row>
     <row r="15">
@@ -7279,19 +7279,19 @@
         <v>44285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33776</v>
+        <v>32816</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56153</v>
+        <v>57121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3179416583980391</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.242494076116194</v>
+        <v>0.2356028064779982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4031424773879619</v>
+        <v>0.4100954442422237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -7300,19 +7300,19 @@
         <v>35648</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25866</v>
+        <v>25837</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45874</v>
+        <v>46863</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3277760456093882</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2378375418144492</v>
+        <v>0.2375628062118192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4218043378253352</v>
+        <v>0.430892836114889</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -7321,19 +7321,19 @@
         <v>79933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65005</v>
+        <v>65369</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96223</v>
+        <v>96295</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3222536349444139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2620700585077641</v>
+        <v>0.2635394441081063</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3879286536373592</v>
+        <v>0.3882163627520445</v>
       </c>
     </row>
     <row r="17">
@@ -7350,19 +7350,19 @@
         <v>82898</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69832</v>
+        <v>69703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94115</v>
+        <v>95125</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5951565803292523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5013560679563697</v>
+        <v>0.5004288992722252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6756921910055972</v>
+        <v>0.682945034881966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -7371,19 +7371,19 @@
         <v>53153</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42179</v>
+        <v>41542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64121</v>
+        <v>63416</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4887274155175056</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3878312784467428</v>
+        <v>0.381972972270511</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5895809529939974</v>
+        <v>0.5831019660915231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -7392,19 +7392,19 @@
         <v>136050</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>118885</v>
+        <v>120375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152268</v>
+        <v>151524</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5484917447217111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4792905666416038</v>
+        <v>0.4852954367008752</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6138767643504894</v>
+        <v>0.6108742563182104</v>
       </c>
     </row>
     <row r="18">
@@ -7421,19 +7421,19 @@
         <v>12104</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6487</v>
+        <v>6352</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19849</v>
+        <v>19652</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08690176127270861</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04657232726218279</v>
+        <v>0.04560063474431062</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.142504870709806</v>
+        <v>0.1410927015803663</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -7442,19 +7442,19 @@
         <v>19957</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12642</v>
+        <v>12803</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29767</v>
+        <v>29655</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1834965388731063</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1162376086772453</v>
+        <v>0.1177217821799505</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2737001135254888</v>
+        <v>0.2726706848551902</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -7463,19 +7463,19 @@
         <v>32061</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22421</v>
+        <v>22269</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43511</v>
+        <v>43864</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1292546203338749</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09039307928834527</v>
+        <v>0.08977842011767488</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1754164643535092</v>
+        <v>0.1768409406367852</v>
       </c>
     </row>
     <row r="19">
@@ -7567,19 +7567,19 @@
         <v>10738</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5559</v>
+        <v>5354</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17781</v>
+        <v>17573</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1292062771157415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06689374990183934</v>
+        <v>0.06442424905426891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2139435322898427</v>
+        <v>0.2114512004170597</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -7588,19 +7588,19 @@
         <v>8920</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4594</v>
+        <v>4407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16205</v>
+        <v>15444</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1599770863491918</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0823969570908302</v>
+        <v>0.07904913545807113</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2906450278076294</v>
+        <v>0.2769948051821182</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -7609,19 +7609,19 @@
         <v>19658</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13175</v>
+        <v>12854</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30425</v>
+        <v>29745</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1415611142706602</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09487666576846167</v>
+        <v>0.09256556676718375</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2190947916750174</v>
+        <v>0.214203112562551</v>
       </c>
     </row>
     <row r="21">
@@ -7638,19 +7638,19 @@
         <v>69051</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>61196</v>
+        <v>61686</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>74901</v>
+        <v>75059</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8308512944206439</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7363326530917523</v>
+        <v>0.7422241234210608</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9012363893680116</v>
+        <v>0.9031348084107046</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -7659,19 +7659,19 @@
         <v>44078</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36401</v>
+        <v>37460</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49191</v>
+        <v>49352</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7905503100463214</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6528608436515716</v>
+        <v>0.6718510002168873</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8822472182651383</v>
+        <v>0.8851506296380643</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -7680,19 +7680,19 @@
         <v>113129</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>101749</v>
+        <v>101967</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>120860</v>
+        <v>120563</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8146699813017673</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7327160079264909</v>
+        <v>0.7342910061792769</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8703401207636109</v>
+        <v>0.8682009100077862</v>
       </c>
     </row>
     <row r="22">
@@ -7709,19 +7709,19 @@
         <v>3320</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8933</v>
+        <v>9474</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03994242846361468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01079850665933419</v>
+        <v>0.0106410784439534</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1074854872812299</v>
+        <v>0.1139951554264605</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -7730,19 +7730,19 @@
         <v>2758</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7388</v>
+        <v>7363</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0494726036044868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01491206438284786</v>
+        <v>0.01524511677122654</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1324987198281545</v>
+        <v>0.1320574359406984</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -7751,19 +7751,19 @@
         <v>6078</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2364</v>
+        <v>1999</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12495</v>
+        <v>12531</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04376890442757251</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01702378376277851</v>
+        <v>0.01439605710212093</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08998279769530822</v>
+        <v>0.09024066214995254</v>
       </c>
     </row>
     <row r="23">
@@ -7855,19 +7855,19 @@
         <v>11264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5791</v>
+        <v>5759</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19080</v>
+        <v>18333</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.129139221985498</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06638493661265393</v>
+        <v>0.06602788929554208</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2187430227860322</v>
+        <v>0.2101793891710704</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -7876,19 +7876,19 @@
         <v>5679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2671</v>
+        <v>1935</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12062</v>
+        <v>11580</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07882500527758381</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03707640557510984</v>
+        <v>0.02686446191821171</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1674358562179297</v>
+        <v>0.160750931674389</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -7897,19 +7897,19 @@
         <v>16943</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9980</v>
+        <v>10378</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25982</v>
+        <v>26139</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1063809177149766</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06266142749191568</v>
+        <v>0.06516328873396453</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1631325192287755</v>
+        <v>0.1641193761846818</v>
       </c>
     </row>
     <row r="25">
@@ -7926,19 +7926,19 @@
         <v>54918</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45167</v>
+        <v>44845</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63634</v>
+        <v>63088</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6296033703633483</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5178092482689686</v>
+        <v>0.5141153250009958</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7295176535481274</v>
+        <v>0.7232574958059597</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -7947,19 +7947,19 @@
         <v>56056</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47742</v>
+        <v>47750</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61957</v>
+        <v>62191</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7781280856420628</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6627219432419709</v>
+        <v>0.6628292807114643</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.860036928817387</v>
+        <v>0.8632893754475622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -7968,19 +7968,19 @@
         <v>110975</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>99406</v>
+        <v>98104</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122624</v>
+        <v>121835</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6967845943428097</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6241444906073054</v>
+        <v>0.6159698294009848</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7699261619431811</v>
+        <v>0.7649719739901217</v>
       </c>
     </row>
     <row r="26">
@@ -7997,19 +7997,19 @@
         <v>21044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13454</v>
+        <v>14219</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29536</v>
+        <v>30868</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2412574076511537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1542440071134776</v>
+        <v>0.1630059860601995</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3386162131201996</v>
+        <v>0.3538825307543688</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -8018,19 +8018,19 @@
         <v>10305</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5597</v>
+        <v>5563</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17430</v>
+        <v>17846</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1430469090803534</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07769691546178781</v>
+        <v>0.07722160661586502</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2419438867938231</v>
+        <v>0.2477170034232677</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -8039,19 +8039,19 @@
         <v>31349</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21662</v>
+        <v>22584</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42270</v>
+        <v>43688</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1968344879422137</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1360122623649134</v>
+        <v>0.1417994425725143</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2654061605091401</v>
+        <v>0.2743047321045073</v>
       </c>
     </row>
     <row r="27">
@@ -8143,19 +8143,19 @@
         <v>58852</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44675</v>
+        <v>45750</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>73049</v>
+        <v>73571</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2991519185787231</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2270913381358726</v>
+        <v>0.2325549752798815</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3713195637836011</v>
+        <v>0.3739694011104973</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -8164,19 +8164,19 @@
         <v>45387</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34079</v>
+        <v>34705</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>57460</v>
+        <v>57667</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2648167163380932</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1988373228645848</v>
+        <v>0.2024883208024485</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3352538669384681</v>
+        <v>0.3364602796639112</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>94</v>
@@ -8185,19 +8185,19 @@
         <v>104239</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>85856</v>
+        <v>87699</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>122498</v>
+        <v>125584</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2831659130007108</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2332288695739811</v>
+        <v>0.2382334186886426</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3327665547027254</v>
+        <v>0.3411489427108681</v>
       </c>
     </row>
     <row r="29">
@@ -8214,19 +8214,19 @@
         <v>120722</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>105488</v>
+        <v>105241</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>136200</v>
+        <v>134321</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.613643703296293</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5362107831005306</v>
+        <v>0.5349518488960505</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.692321266548247</v>
+        <v>0.6827731179282102</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>101</v>
@@ -8235,19 +8235,19 @@
         <v>104610</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92255</v>
+        <v>91574</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117271</v>
+        <v>116519</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6103551134292609</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5382702762290937</v>
+        <v>0.5342976611787175</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6842260638065598</v>
+        <v>0.6798378038238638</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>204</v>
@@ -8256,19 +8256,19 @@
         <v>225331</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>204612</v>
+        <v>202048</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>245228</v>
+        <v>244006</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6121125803516912</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5558275123978209</v>
+        <v>0.548862672212413</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6661610878489747</v>
+        <v>0.6628428917618184</v>
       </c>
     </row>
     <row r="30">
@@ -8285,19 +8285,19 @@
         <v>17156</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9476</v>
+        <v>10208</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26952</v>
+        <v>27881</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08720437812498379</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0481685307025892</v>
+        <v>0.0518889057827434</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1370030037630172</v>
+        <v>0.141721232875972</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -8306,19 +8306,19 @@
         <v>21395</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13759</v>
+        <v>13775</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31836</v>
+        <v>31470</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.124828170232646</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08028002948438206</v>
+        <v>0.08037062211071727</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1857505449564118</v>
+        <v>0.1836166610117445</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>35</v>
@@ -8327,19 +8327,19 @@
         <v>38550</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27304</v>
+        <v>27826</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>51827</v>
+        <v>52440</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.104721506647598</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07417157682202928</v>
+        <v>0.07558830244273859</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1407892980705887</v>
+        <v>0.1424540943428558</v>
       </c>
     </row>
     <row r="31">
@@ -8431,19 +8431,19 @@
         <v>50902</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>39608</v>
+        <v>38379</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64295</v>
+        <v>66278</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2002921798752569</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1558536283952692</v>
+        <v>0.1510177528856452</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2529940567972604</v>
+        <v>0.2607955215862032</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -8452,19 +8452,19 @@
         <v>37599</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27283</v>
+        <v>27659</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49928</v>
+        <v>50556</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1762312033229025</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.127879930896568</v>
+        <v>0.1296419117515156</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2340195602567235</v>
+        <v>0.236962149515231</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>85</v>
@@ -8473,19 +8473,19 @@
         <v>88500</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>71577</v>
+        <v>71776</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>105931</v>
+        <v>106831</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1893113690153344</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1531100872957782</v>
+        <v>0.1535351438058835</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2265961480072254</v>
+        <v>0.2285228619312011</v>
       </c>
     </row>
     <row r="33">
@@ -8502,19 +8502,19 @@
         <v>168930</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>152132</v>
+        <v>153403</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>182572</v>
+        <v>184808</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6647193718661647</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5986233962972102</v>
+        <v>0.6036248191938322</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7184000351377609</v>
+        <v>0.7271971400844344</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>141</v>
@@ -8523,19 +8523,19 @@
         <v>147505</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>134161</v>
+        <v>133032</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>160267</v>
+        <v>160934</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6913796483051086</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6288317524593213</v>
+        <v>0.6235419080835507</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7511943352039424</v>
+        <v>0.7543210116334806</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>301</v>
@@ -8544,19 +8544,19 @@
         <v>316435</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>294991</v>
+        <v>295558</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>337320</v>
+        <v>336783</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6768864363413862</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6310167425727234</v>
+        <v>0.6322281171066046</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7215606974141768</v>
+        <v>0.720413200298865</v>
       </c>
     </row>
     <row r="34">
@@ -8573,19 +8573,19 @@
         <v>34306</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>23926</v>
+        <v>23685</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>47804</v>
+        <v>47334</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1349884482585784</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09414494795008618</v>
+        <v>0.09319770148561585</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1881023051796526</v>
+        <v>0.1862546859307336</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>26</v>
@@ -8594,19 +8594,19 @@
         <v>28245</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19796</v>
+        <v>19339</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>40433</v>
+        <v>39685</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.132389148371989</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09278840995190024</v>
+        <v>0.09064718716275734</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1895160543008124</v>
+        <v>0.1860074777081853</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>56</v>
@@ -8615,19 +8615,19 @@
         <v>62551</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>48900</v>
+        <v>48017</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>80060</v>
+        <v>79451</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1338021946432794</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1046015529899631</v>
+        <v>0.1027139361071234</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1712575268486778</v>
+        <v>0.1699528573359607</v>
       </c>
     </row>
     <row r="35">
@@ -8719,19 +8719,19 @@
         <v>257936</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>229315</v>
+        <v>229057</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>286002</v>
+        <v>291214</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2203942122325459</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1959387493780188</v>
+        <v>0.1957186668884082</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2443752048178386</v>
+        <v>0.2488293558788869</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>188</v>
@@ -8740,19 +8740,19 @@
         <v>198234</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>173608</v>
+        <v>175536</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>223720</v>
+        <v>225376</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2163459522732243</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1894704253169231</v>
+        <v>0.1915744612863867</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2441601906057396</v>
+        <v>0.2459677524736186</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>429</v>
@@ -8761,19 +8761,19 @@
         <v>456170</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>416257</v>
+        <v>420308</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>495913</v>
+        <v>496454</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2186165300287617</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.199488723344187</v>
+        <v>0.2014300289402908</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2376631903203724</v>
+        <v>0.237922629191992</v>
       </c>
     </row>
     <row r="37">
@@ -8790,19 +8790,19 @@
         <v>772532</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>741120</v>
+        <v>736147</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>808178</v>
+        <v>806639</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6600927908754385</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6332526443645012</v>
+        <v>0.6290034568280812</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6905509024628296</v>
+        <v>0.689236266012793</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>582</v>
@@ -8811,19 +8811,19 @@
         <v>595473</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>565403</v>
+        <v>565584</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>622618</v>
+        <v>624583</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6498796673799818</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.617062457613841</v>
+        <v>0.6172599531641055</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6795051134616926</v>
+        <v>0.6816492200697272</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1302</v>
@@ -8832,19 +8832,19 @@
         <v>1368005</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1324875</v>
+        <v>1322390</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1410131</v>
+        <v>1411967</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6556079781249339</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6349382494925455</v>
+        <v>0.6337475648389619</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.675796605816517</v>
+        <v>0.6766764080702975</v>
       </c>
     </row>
     <row r="38">
@@ -8861,19 +8861,19 @@
         <v>139871</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>118662</v>
+        <v>118314</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>163676</v>
+        <v>166929</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1195129968920156</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1013912640705089</v>
+        <v>0.1010941237669586</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1398538642634919</v>
+        <v>0.1426328996485722</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>117</v>
@@ -8882,19 +8882,19 @@
         <v>122575</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>102767</v>
+        <v>102798</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>143803</v>
+        <v>143335</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.133774380346794</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1121562418956451</v>
+        <v>0.1121899977753541</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1569419671038547</v>
+        <v>0.1564315514637959</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>244</v>
@@ -8903,19 +8903,19 @@
         <v>262446</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>232399</v>
+        <v>235449</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>291935</v>
+        <v>295250</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1257754918463044</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1113756988683304</v>
+        <v>0.1128376655524191</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1399080449201578</v>
+        <v>0.1414968554986906</v>
       </c>
     </row>
     <row r="39">
